--- a/models/calculation engines/AL quarterly chart pack/Outputs/Special Charts Outputs.xlsx
+++ b/models/calculation engines/AL quarterly chart pack/Outputs/Special Charts Outputs.xlsx
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.748045486851457</v>
+        <v>0.7480454868514571</v>
       </c>
     </row>
     <row r="4">
